--- a/Consultancy Process.xlsx
+++ b/Consultancy Process.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manju\OneDrive\Desktop\Sumanth MS\Bolster Consultancy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manju\OneDrive\Desktop\Sumanth MS\Sumanth-MS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDF0643-0056-40D5-B2F7-0D9924D00E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156673A2-9DB2-4E34-A0A1-4291484F2DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
   <si>
     <t>Checklist</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>Processing</t>
   </si>
 </sst>
 </file>
@@ -408,7 +405,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,7 +435,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1"/>
     </row>
